--- a/public/odds.xlsx
+++ b/public/odds.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Not.Dropbox/_CODING/js_react/fifa2022/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC05B2B-BC7F-CB4E-A5E1-172C3EB8254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7F85B-7DAB-BD41-B370-18C0F7C315F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Brazil</t>
   </si>
@@ -90,13 +90,27 @@
   </si>
   <si>
     <t>q</t>
+  </si>
+  <si>
+    <t>p_odds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,13 +136,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,32 +458,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759C764-E5D6-C946-B259-A9C7B5E74160}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>40/17</f>
-        <v>2.3529411764705883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f>13/5</f>
+        <v>2.6</v>
+      </c>
+      <c r="C2">
+        <f>1/(1+B2)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D2" s="1">
+        <f>ROUND(C2/$C$18,4)</f>
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"'"&amp;A2&amp;"': "&amp;D2&amp;","</f>
+        <v>'Brazil': 0.2684,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -474,122 +506,305 @@
         <f>5/1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <f t="shared" ref="C3:C17" si="0">1/(1+B3)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D17" si="1">ROUND(C3/$C$18,4)</f>
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E17" si="2">"'"&amp;A3&amp;"': "&amp;D3&amp;","</f>
+        <v>'Argentina': 0.1611,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f>11/2</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <f>21/4</f>
+        <v>5.25</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>'France': 0.1546,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <f>33/5</f>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <f>7/1</f>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1208</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>'Spain': 0.1208,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <f>19/2</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>'England': 0.0966,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <f>13</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>'Portugal': 0.069,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <f>22</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>'Netherlands': 0.0568,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>'Croatia': 0.0268,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Japan': 0.0119,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.14E-2</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>'Switzerland': 0.0114,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>'Morocco': 0.0087,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1000000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>9.9999900000100006E-7</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>'USA': 0,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>'Senegal': 0.006,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4.3478260869565218E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>'South Korea': 0.0042,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>3.5714285714285713E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>'Poland': 0.0035,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>300</v>
+        <v>1000000</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>9.9999900000100006E-7</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>'Australia': 0,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>SUM(C2:C17)</f>
+        <v>1.034764971622651</v>
       </c>
     </row>
   </sheetData>

--- a/public/odds.xlsx
+++ b/public/odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Not.Dropbox/_CODING/js_react/fifa2022/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A7F85B-7DAB-BD41-B370-18C0F7C315F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEF47E-2FEC-9843-91C1-ABC3FC16E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/odds.xlsx
+++ b/public/odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Not.Dropbox/_CODING/js_react/fifa2022/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FEF47E-2FEC-9843-91C1-ABC3FC16E9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340EC62-C90B-4C4A-B55A-476B2FD1C535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
+    <workbookView xWindow="6060" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -142,7 +142,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -482,103 +482,99 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>13/5</f>
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <f>1/(1+B2)</f>
-        <v>0.27777777777777779</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(C2/$C$18,4)</f>
-        <v>0.26840000000000003</v>
+        <v>0.32150000000000001</v>
       </c>
       <c r="E2" t="str">
         <f>"'"&amp;A2&amp;"': "&amp;D2&amp;","</f>
-        <v>'Brazil': 0.2684,</v>
+        <v>'Brazil': 0.3215,</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <f>5/1</f>
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C17" si="0">1/(1+B3)</f>
-        <v>0.16666666666666666</v>
+        <f>1/(1+B3)</f>
+        <v>0.17543859649122806</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D17" si="1">ROUND(C3/$C$18,4)</f>
-        <v>0.16109999999999999</v>
+        <f>ROUND(C3/$C$18,4)</f>
+        <v>0.16919999999999999</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E17" si="2">"'"&amp;A3&amp;"': "&amp;D3&amp;","</f>
-        <v>'Argentina': 0.1611,</v>
+        <f>"'"&amp;A3&amp;"': "&amp;D3&amp;","</f>
+        <v>'France': 0.1692,</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <f>21/4</f>
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
+        <f>1/(1+B4)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.15459999999999999</v>
+        <f>ROUND(C4/$C$18,4)</f>
+        <v>0.13780000000000001</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
-        <v>'France': 0.1546,</v>
+        <f>"'"&amp;A4&amp;"': "&amp;D4&amp;","</f>
+        <v>'Argentina': 0.1378,</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>7/1</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>1/(1+B5)</f>
+        <v>0.12195121951219513</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1208</v>
+        <f>ROUND(C5/$C$18,4)</f>
+        <v>0.1176</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
-        <v>'Spain': 0.1208,</v>
+        <f>"'"&amp;A5&amp;"': "&amp;D5&amp;","</f>
+        <v>'England': 0.1176,</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>1/(1+B6)</f>
+        <v>0.10526315789473684</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>9.6600000000000005E-2</v>
+        <f>ROUND(C6/$C$18,4)</f>
+        <v>0.10150000000000001</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
-        <v>'England': 0.0966,</v>
+        <f>"'"&amp;A6&amp;"': "&amp;D6&amp;","</f>
+        <v>'Spain': 0.1015,</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -586,19 +582,20 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <f>31/2</f>
+        <v>15.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <f>1/(1+B7)</f>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9000000000000006E-2</v>
+        <f>ROUND(C7/$C$18,4)</f>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
-        <v>'Portugal': 0.069,</v>
+        <f>"'"&amp;A7&amp;"': "&amp;D7&amp;","</f>
+        <v>'Portugal': 0.0585,</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -609,16 +606,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>1/(1+B8)</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6800000000000003E-2</v>
+        <f>ROUND(C8/$C$18,4)</f>
+        <v>5.67E-2</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>'Netherlands': 0.0568,</v>
+        <f>"'"&amp;A8&amp;"': "&amp;D8&amp;","</f>
+        <v>'Netherlands': 0.0567,</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -626,79 +623,79 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <f>1/(1+B9)</f>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6800000000000001E-2</v>
+        <f>ROUND(C9/$C$18,4)</f>
+        <v>2.01E-2</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
-        <v>'Croatia': 0.0268,</v>
+        <f>"'"&amp;A9&amp;"': "&amp;D9&amp;","</f>
+        <v>'Croatia': 0.0201,</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.2345679012345678E-2</v>
+        <f>1/(1+B10)</f>
+        <v>9.9009900990099011E-3</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1900000000000001E-2</v>
+        <f>ROUND(C10/$C$18,4)</f>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
-        <v>'Japan': 0.0119,</v>
+        <f>"'"&amp;A10&amp;"': "&amp;D10&amp;","</f>
+        <v>'Switzerland': 0.0096,</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.1764705882352941E-2</v>
+        <f>1/(1+B11)</f>
+        <v>7.6923076923076927E-3</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.14E-2</v>
+        <f>ROUND(C11/$C$18,4)</f>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
-        <v>'Switzerland': 0.0114,</v>
+        <f>"'"&amp;A11&amp;"': "&amp;D11&amp;","</f>
+        <v>'Morocco': 0.0074,</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>1000000</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>9.0090090090090089E-3</v>
+        <f>1/(1+B12)</f>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>8.6999999999999994E-3</v>
+        <f>ROUND(C12/$C$18,4)</f>
+        <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
-        <v>'Morocco': 0.0087,</v>
+        <f>"'"&amp;A12&amp;"': "&amp;D12&amp;","</f>
+        <v>'Japan': 0,</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,15 +706,15 @@
         <v>1000000</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>1/(1+B13)</f>
         <v>9.9999900000100006E-7</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(C13/$C$18,4)</f>
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;A13&amp;"': "&amp;D13&amp;","</f>
         <v>'USA': 0,</v>
       </c>
     </row>
@@ -726,19 +723,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>159</v>
+        <v>1000000</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>6.2500000000000003E-3</v>
+        <f>1/(1+B14)</f>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
+        <f>ROUND(C14/$C$18,4)</f>
+        <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
-        <v>'Senegal': 0.006,</v>
+        <f>"'"&amp;A14&amp;"': "&amp;D14&amp;","</f>
+        <v>'Senegal': 0,</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -746,19 +743,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>229</v>
+        <v>1000000</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4.3478260869565218E-3</v>
+        <f>1/(1+B15)</f>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1999999999999997E-3</v>
+        <f>ROUND(C15/$C$18,4)</f>
+        <v>0</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
-        <v>'South Korea': 0.0042,</v>
+        <f>"'"&amp;A15&amp;"': "&amp;D15&amp;","</f>
+        <v>'South Korea': 0,</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -766,19 +763,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>279</v>
+        <v>1000000</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>3.5714285714285713E-3</v>
+        <f>1/(1+B16)</f>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5000000000000001E-3</v>
+        <f>ROUND(C16/$C$18,4)</f>
+        <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
-        <v>'Poland': 0.0035,</v>
+        <f>"'"&amp;A16&amp;"': "&amp;D16&amp;","</f>
+        <v>'Poland': 0,</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,37 +786,40 @@
         <v>1000000</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>1/(1+B17)</f>
         <v>9.9999900000100006E-7</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f>ROUND(C17/$C$18,4)</f>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f>"'"&amp;A17&amp;"': "&amp;D17&amp;","</f>
         <v>'Australia': 0,</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SUM(C2:C17)</f>
-        <v>1.034764971622651</v>
+        <v>1.0367056712251126</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=brazil" xr:uid="{828E96E2-0326-6345-BC43-D4126678F791}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=argentina" xr:uid="{18CFF240-40A3-F348-8532-D314C0218144}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=france" xr:uid="{DA84C2AE-380D-1C45-BBD9-60959C05F9D2}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=spain" xr:uid="{79CB095D-2A99-6143-B906-44DAE714475B}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=england" xr:uid="{78D58EAC-50BA-224A-8F54-3BAAD9623400}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=argentina" xr:uid="{18CFF240-40A3-F348-8532-D314C0218144}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=france" xr:uid="{DA84C2AE-380D-1C45-BBD9-60959C05F9D2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=spain" xr:uid="{79CB095D-2A99-6143-B906-44DAE714475B}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=england" xr:uid="{78D58EAC-50BA-224A-8F54-3BAAD9623400}"/>
     <hyperlink ref="A7" r:id="rId6" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=portugal" xr:uid="{79D1A18F-DF89-2E47-B0A2-4DBC50B9B818}"/>
     <hyperlink ref="A8" r:id="rId7" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=netherlands" xr:uid="{4E301328-3540-1B4D-85F1-DB4FBBB0B60F}"/>
     <hyperlink ref="A9" r:id="rId8" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=croatia" xr:uid="{950525CB-074F-5343-8213-AEDE1494D336}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=japan" xr:uid="{3B4641CC-7614-704A-8FA9-833E5EF25BF3}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=switzerland" xr:uid="{8C49CF68-B117-DF42-A861-3A3A0F6BB8DF}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=japan" xr:uid="{3B4641CC-7614-704A-8FA9-833E5EF25BF3}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=switzerland" xr:uid="{8C49CF68-B117-DF42-A861-3A3A0F6BB8DF}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
     <hyperlink ref="A13" r:id="rId12" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=usa" xr:uid="{956E7F53-11A9-AD43-A454-F0A2E85CBB8E}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=senegal" xr:uid="{84446ADA-EB55-F043-8BB9-FED48EB37715}"/>
     <hyperlink ref="A15" r:id="rId14" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=south-korea" xr:uid="{14C4A995-B964-DA44-8929-8C7122F4BF5F}"/>

--- a/public/odds.xlsx
+++ b/public/odds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Not.Dropbox/_CODING/js_react/fifa2022/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9340EC62-C90B-4C4A-B55A-476B2FD1C535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73D983-B557-F04A-B89E-5E3420E290FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,19 +482,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <f>9/5</f>
+        <v>1.8</v>
       </c>
       <c r="C2">
         <f>1/(1+B2)</f>
-        <v>0.33333333333333331</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(C2/$C$18,4)</f>
-        <v>0.32150000000000001</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="E2" t="str">
         <f>"'"&amp;A2&amp;"': "&amp;D2&amp;","</f>
-        <v>'Brazil': 0.3215,</v>
+        <v>'Brazil': 0.3414,</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -502,19 +503,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.7</v>
+        <f>9/2</f>
+        <v>4.5</v>
       </c>
       <c r="C3">
         <f>1/(1+B3)</f>
-        <v>0.17543859649122806</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D3" s="1">
         <f>ROUND(C3/$C$18,4)</f>
-        <v>0.16919999999999999</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="E3" t="str">
         <f>"'"&amp;A3&amp;"': "&amp;D3&amp;","</f>
-        <v>'France': 0.1692,</v>
+        <v>'France': 0.1738,</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -522,6 +524,7 @@
         <v>1</v>
       </c>
       <c r="B4">
+        <f>6/1</f>
         <v>6</v>
       </c>
       <c r="C4">
@@ -530,11 +533,11 @@
       </c>
       <c r="D4" s="1">
         <f>ROUND(C4/$C$18,4)</f>
-        <v>0.13780000000000001</v>
+        <v>0.1366</v>
       </c>
       <c r="E4" t="str">
         <f>"'"&amp;A4&amp;"': "&amp;D4&amp;","</f>
-        <v>'Argentina': 0.1378,</v>
+        <v>'Argentina': 0.1366,</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -542,140 +545,142 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.2</v>
+        <f>13/2</f>
+        <v>6.5</v>
       </c>
       <c r="C5">
         <f>1/(1+B5)</f>
-        <v>0.12195121951219513</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D5" s="1">
         <f>ROUND(C5/$C$18,4)</f>
-        <v>0.1176</v>
+        <v>0.1275</v>
       </c>
       <c r="E5" t="str">
         <f>"'"&amp;A5&amp;"': "&amp;D5&amp;","</f>
-        <v>'England': 0.1176,</v>
+        <v>'England': 0.1275,</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>8.5</v>
+        <f>13/2</f>
+        <v>6.5</v>
       </c>
       <c r="C6">
         <f>1/(1+B6)</f>
-        <v>0.10526315789473684</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D6" s="1">
         <f>ROUND(C6/$C$18,4)</f>
-        <v>0.10150000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="E6" t="str">
         <f>"'"&amp;A6&amp;"': "&amp;D6&amp;","</f>
-        <v>'Spain': 0.1015,</v>
+        <v>'Portugal': 0.1275,</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <f>31/2</f>
-        <v>15.5</v>
+        <f>33/2</f>
+        <v>16.5</v>
       </c>
       <c r="C7">
         <f>1/(1+B7)</f>
-        <v>6.0606060606060608E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="D7" s="1">
         <f>ROUND(C7/$C$18,4)</f>
-        <v>5.8500000000000003E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="E7" t="str">
         <f>"'"&amp;A7&amp;"': "&amp;D7&amp;","</f>
-        <v>'Portugal': 0.0585,</v>
+        <v>'Netherlands': 0.0546,</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <f>1/(1+B8)</f>
-        <v>5.8823529411764705E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D8" s="1">
         <f>ROUND(C8/$C$18,4)</f>
-        <v>5.67E-2</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="E8" t="str">
         <f>"'"&amp;A8&amp;"': "&amp;D8&amp;","</f>
-        <v>'Netherlands': 0.0567,</v>
+        <v>'Croatia': 0.0199,</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <f>1/(1+B9)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="D9" s="1">
         <f>ROUND(C9/$C$18,4)</f>
-        <v>2.01E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="E9" t="str">
         <f>"'"&amp;A9&amp;"': "&amp;D9&amp;","</f>
-        <v>'Croatia': 0.0201,</v>
+        <v>'Morocco': 0.0187,</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>100000</v>
       </c>
       <c r="C10">
         <f>1/(1+B10)</f>
-        <v>9.9009900990099011E-3</v>
+        <v>9.9999000009999908E-6</v>
       </c>
       <c r="D10" s="1">
         <f>ROUND(C10/$C$18,4)</f>
-        <v>9.5999999999999992E-3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="str">
         <f>"'"&amp;A10&amp;"': "&amp;D10&amp;","</f>
-        <v>'Switzerland': 0.0096,</v>
+        <v>'Spain': 0,</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>100000</v>
       </c>
       <c r="C11">
         <f>1/(1+B11)</f>
-        <v>7.6923076923076927E-3</v>
+        <v>9.9999000009999908E-6</v>
       </c>
       <c r="D11" s="1">
         <f>ROUND(C11/$C$18,4)</f>
-        <v>7.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="str">
         <f>"'"&amp;A11&amp;"': "&amp;D11&amp;","</f>
-        <v>'Morocco': 0.0074,</v>
+        <v>'Switzerland': 0,</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +806,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18">
         <f>SUM(C2:C17)</f>
-        <v>1.0367056712251126</v>
+        <v>1.0460948818922959</v>
       </c>
     </row>
   </sheetData>
@@ -812,14 +817,14 @@
     <hyperlink ref="A2" r:id="rId1" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=brazil" xr:uid="{828E96E2-0326-6345-BC43-D4126678F791}"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=argentina" xr:uid="{18CFF240-40A3-F348-8532-D314C0218144}"/>
     <hyperlink ref="A3" r:id="rId3" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=france" xr:uid="{DA84C2AE-380D-1C45-BBD9-60959C05F9D2}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=spain" xr:uid="{79CB095D-2A99-6143-B906-44DAE714475B}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=spain" xr:uid="{79CB095D-2A99-6143-B906-44DAE714475B}"/>
     <hyperlink ref="A5" r:id="rId5" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=england" xr:uid="{78D58EAC-50BA-224A-8F54-3BAAD9623400}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=portugal" xr:uid="{79D1A18F-DF89-2E47-B0A2-4DBC50B9B818}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=netherlands" xr:uid="{4E301328-3540-1B4D-85F1-DB4FBBB0B60F}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=croatia" xr:uid="{950525CB-074F-5343-8213-AEDE1494D336}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=portugal" xr:uid="{79D1A18F-DF89-2E47-B0A2-4DBC50B9B818}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=netherlands" xr:uid="{4E301328-3540-1B4D-85F1-DB4FBBB0B60F}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=croatia" xr:uid="{950525CB-074F-5343-8213-AEDE1494D336}"/>
     <hyperlink ref="A12" r:id="rId9" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=japan" xr:uid="{3B4641CC-7614-704A-8FA9-833E5EF25BF3}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=switzerland" xr:uid="{8C49CF68-B117-DF42-A861-3A3A0F6BB8DF}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=switzerland" xr:uid="{8C49CF68-B117-DF42-A861-3A3A0F6BB8DF}"/>
+    <hyperlink ref="A9" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
     <hyperlink ref="A13" r:id="rId12" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=usa" xr:uid="{956E7F53-11A9-AD43-A454-F0A2E85CBB8E}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=senegal" xr:uid="{84446ADA-EB55-F043-8BB9-FED48EB37715}"/>
     <hyperlink ref="A15" r:id="rId14" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=south-korea" xr:uid="{14C4A995-B964-DA44-8929-8C7122F4BF5F}"/>

--- a/public/odds.xlsx
+++ b/public/odds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Not.Dropbox/_CODING/js_react/fifa2022/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73D983-B557-F04A-B89E-5E3420E290FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01BEE0C-842B-1E4A-835D-F770E437C36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="940" windowWidth="28040" windowHeight="17440" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="19020" windowHeight="14960" xr2:uid="{BA875332-AECF-5148-ABCF-F30FA9C22D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -461,198 +462,202 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>9/5</f>
-        <v>1.8</v>
-      </c>
-      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <f>15/8</f>
+        <v>1.875</v>
+      </c>
+      <c r="C2" s="1">
         <f>1/(1+B2)</f>
-        <v>0.35714285714285715</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="D2" s="1">
         <f>ROUND(C2/$C$18,4)</f>
-        <v>0.34139999999999998</v>
+        <v>0.3382</v>
       </c>
       <c r="E2" t="str">
         <f>"'"&amp;A2&amp;"': "&amp;D2&amp;","</f>
-        <v>'Brazil': 0.3414,</v>
+        <v>'Argentina': 0.3382,</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <f>9/2</f>
-        <v>4.5</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2">
+        <f>17/5</f>
+        <v>3.4</v>
+      </c>
+      <c r="C3" s="1">
         <f>1/(1+B3)</f>
-        <v>0.18181818181818182</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="D3" s="1">
         <f>ROUND(C3/$C$18,4)</f>
-        <v>0.17380000000000001</v>
+        <v>0.221</v>
       </c>
       <c r="E3" t="str">
         <f>"'"&amp;A3&amp;"': "&amp;D3&amp;","</f>
-        <v>'France': 0.1738,</v>
+        <v>'France': 0.221,</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>6/1</f>
-        <v>6</v>
-      </c>
-      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <f>24/5</f>
+        <v>4.8</v>
+      </c>
+      <c r="C4" s="1">
         <f>1/(1+B4)</f>
-        <v>0.14285714285714285</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="D4" s="1">
         <f>ROUND(C4/$C$18,4)</f>
-        <v>0.1366</v>
+        <v>0.16769999999999999</v>
       </c>
       <c r="E4" t="str">
         <f>"'"&amp;A4&amp;"': "&amp;D4&amp;","</f>
-        <v>'Argentina': 0.1366,</v>
+        <v>'England': 0.1677,</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f>13/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <f>49/10</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C5" s="1">
         <f>1/(1+B5)</f>
-        <v>0.13333333333333333</v>
+        <v>0.16949152542372881</v>
       </c>
       <c r="D5" s="1">
         <f>ROUND(C5/$C$18,4)</f>
-        <v>0.1275</v>
+        <v>0.1648</v>
       </c>
       <c r="E5" t="str">
         <f>"'"&amp;A5&amp;"': "&amp;D5&amp;","</f>
-        <v>'England': 0.1275,</v>
+        <v>'Portugal': 0.1648,</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>13/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <f>21/2</f>
+        <v>10.5</v>
+      </c>
+      <c r="C6" s="1">
         <f>1/(1+B6)</f>
-        <v>0.13333333333333333</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="D6" s="1">
         <f>ROUND(C6/$C$18,4)</f>
-        <v>0.1275</v>
+        <v>8.4599999999999995E-2</v>
       </c>
       <c r="E6" t="str">
         <f>"'"&amp;A6&amp;"': "&amp;D6&amp;","</f>
-        <v>'Portugal': 0.1275,</v>
+        <v>'Croatia': 0.0846,</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>33/2</f>
-        <v>16.5</v>
-      </c>
-      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
         <f>1/(1+B7)</f>
-        <v>5.7142857142857141E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="D7" s="1">
         <f>ROUND(C7/$C$18,4)</f>
-        <v>5.4600000000000003E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="E7" t="str">
         <f>"'"&amp;A7&amp;"': "&amp;D7&amp;","</f>
-        <v>'Netherlands': 0.0546,</v>
+        <v>'Morocco': 0.0237,</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>47</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="1">
         <f>1/(1+B8)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D8" s="1">
         <f>ROUND(C8/$C$18,4)</f>
-        <v>1.9900000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="str">
         <f>"'"&amp;A8&amp;"': "&amp;D8&amp;","</f>
-        <v>'Croatia': 0.0199,</v>
+        <v>'Brazil': 0,</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C9" s="1">
         <f>1/(1+B9)</f>
-        <v>1.9607843137254902E-2</v>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D9" s="1">
         <f>ROUND(C9/$C$18,4)</f>
-        <v>1.8700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="str">
         <f>"'"&amp;A9&amp;"': "&amp;D9&amp;","</f>
-        <v>'Morocco': 0.0187,</v>
+        <v>'Netherlands': 0,</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>100000</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C10" s="1">
         <f>1/(1+B10)</f>
-        <v>9.9999000009999908E-6</v>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D10" s="1">
         <f>ROUND(C10/$C$18,4)</f>
@@ -667,12 +672,12 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>100000</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C11" s="1">
         <f>1/(1+B11)</f>
-        <v>9.9999000009999908E-6</v>
+        <v>9.9999900000100006E-7</v>
       </c>
       <c r="D11" s="1">
         <f>ROUND(C11/$C$18,4)</f>
@@ -687,10 +692,10 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>1000000</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C12" s="1">
         <f>1/(1+B12)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -707,10 +712,10 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1000000</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C13" s="1">
         <f>1/(1+B13)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -727,10 +732,10 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1000000</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C14" s="1">
         <f>1/(1+B14)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -747,10 +752,10 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1000000</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C15" s="1">
         <f>1/(1+B15)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -767,10 +772,10 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1000000</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C16" s="1">
         <f>1/(1+B16)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -787,10 +792,10 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1000000</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="C17" s="1">
         <f>1/(1+B17)</f>
         <v>9.9999900000100006E-7</v>
       </c>
@@ -804,9 +809,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18">
+      <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>1.0460948818922959</v>
+        <v>1.0283608983879962</v>
       </c>
     </row>
   </sheetData>
@@ -814,17 +819,17 @@
     <sortCondition ref="B2:B17"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=brazil" xr:uid="{828E96E2-0326-6345-BC43-D4126678F791}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=argentina" xr:uid="{18CFF240-40A3-F348-8532-D314C0218144}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=brazil" xr:uid="{828E96E2-0326-6345-BC43-D4126678F791}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=argentina" xr:uid="{18CFF240-40A3-F348-8532-D314C0218144}"/>
     <hyperlink ref="A3" r:id="rId3" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=france" xr:uid="{DA84C2AE-380D-1C45-BBD9-60959C05F9D2}"/>
     <hyperlink ref="A10" r:id="rId4" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=spain" xr:uid="{79CB095D-2A99-6143-B906-44DAE714475B}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=england" xr:uid="{78D58EAC-50BA-224A-8F54-3BAAD9623400}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=portugal" xr:uid="{79D1A18F-DF89-2E47-B0A2-4DBC50B9B818}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=netherlands" xr:uid="{4E301328-3540-1B4D-85F1-DB4FBBB0B60F}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=croatia" xr:uid="{950525CB-074F-5343-8213-AEDE1494D336}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=england" xr:uid="{78D58EAC-50BA-224A-8F54-3BAAD9623400}"/>
+    <hyperlink ref="A5" r:id="rId6" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=portugal" xr:uid="{79D1A18F-DF89-2E47-B0A2-4DBC50B9B818}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=netherlands" xr:uid="{4E301328-3540-1B4D-85F1-DB4FBBB0B60F}"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=croatia" xr:uid="{950525CB-074F-5343-8213-AEDE1494D336}"/>
     <hyperlink ref="A12" r:id="rId9" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=japan" xr:uid="{3B4641CC-7614-704A-8FA9-833E5EF25BF3}"/>
     <hyperlink ref="A11" r:id="rId10" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=switzerland" xr:uid="{8C49CF68-B117-DF42-A861-3A3A0F6BB8DF}"/>
-    <hyperlink ref="A9" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=morocco" xr:uid="{8A6644B1-CB49-4949-8D42-23A9CFFD80E0}"/>
     <hyperlink ref="A13" r:id="rId12" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=usa" xr:uid="{956E7F53-11A9-AD43-A454-F0A2E85CBB8E}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=senegal" xr:uid="{84446ADA-EB55-F043-8BB9-FED48EB37715}"/>
     <hyperlink ref="A15" r:id="rId14" display="https://www.oddschecker.com/football/world-cup/winner?selectionName=south-korea" xr:uid="{14C4A995-B964-DA44-8929-8C7122F4BF5F}"/>
